--- a/public/templates/sample-questions.xlsx
+++ b/public/templates/sample-questions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -528,9 +528,52 @@
         <v>Gravity is a force that attracts objects with mass towards each other, with the strength proportional to their masses and inversely proportional to the square of the distance between them.</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>mcq</v>
+      </c>
+      <c r="B7" t="str">
+        <v>भारत की राजधानी क्या है?</v>
+      </c>
+      <c r="C7" t="str">
+        <v>A:मुंबई,B:दिल्ली,C:कोलकाता,D:चेन्नई</v>
+      </c>
+      <c r="D7" t="str">
+        <v>b</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>दिल्ली भारत की राजधानी है</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>fillblank</v>
+      </c>
+      <c r="B8" t="str">
+        <v>गणित में π का मान लगभग ___ होता है।</v>
+      </c>
+      <c r="D8" t="str">
+        <v>3.14159</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3.14159 गणित में π का लगभग मान है</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G8"/>
   </ignoredErrors>
 </worksheet>
 </file>